--- a/inst/extdata/3drugs.xlsx
+++ b/inst/extdata/3drugs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026A0CA-6158-422F-BFB9-31FA6700CB16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE07266-EEB1-4280-BC61-8285AA0EB94C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="9300" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>drugC</t>
-  </si>
-  <si>
-    <t>drugA_cabo</t>
-  </si>
-  <si>
-    <t>drugB_rmc</t>
-  </si>
-  <si>
-    <t>drugC_gem</t>
   </si>
 </sst>
 </file>
@@ -105,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -113,11 +104,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -148,6 +256,60 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,37 +598,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="7" width="11.42578125" style="7"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="16384" width="11.42578125" style="7"/>
+    <col min="2" max="6" width="11.42578125" style="7"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -474,2165 +635,1077 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="11">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28">
         <v>10</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="29">
         <v>20</v>
       </c>
-      <c r="G3" s="11">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
         <v>100</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="13">
         <v>80.961661374534799</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="13">
         <v>74.460617408228103</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>59.050909411912201</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="22">
         <v>49.6366860860944</v>
       </c>
-      <c r="G4" s="5">
-        <v>57.230342802088202</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>90.500493852324695</v>
-      </c>
-      <c r="C5" s="5">
-        <v>69.413662603577293</v>
-      </c>
-      <c r="D5" s="5">
-        <v>63.050980638791501</v>
-      </c>
-      <c r="E5" s="5">
-        <v>46.786739525197099</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43.1398854232297</v>
-      </c>
-      <c r="G5" s="5">
-        <v>50.700732310823497</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B6" s="5">
-        <v>80.626705609078897</v>
-      </c>
-      <c r="C6" s="5">
-        <v>64.898143668404003</v>
-      </c>
-      <c r="D6" s="5">
-        <v>60.156289958563399</v>
-      </c>
-      <c r="E6" s="5">
-        <v>53.729465915854497</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43.705419266795097</v>
-      </c>
-      <c r="G6" s="5">
-        <v>53.348667318569397</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>73.1823601329518</v>
-      </c>
-      <c r="C7" s="5">
-        <v>58.382627006428997</v>
-      </c>
-      <c r="D7" s="5">
-        <v>57.799778969354598</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42.957233942032701</v>
-      </c>
-      <c r="F7" s="5">
-        <v>37.121630883368603</v>
-      </c>
-      <c r="G7" s="5">
-        <v>41.659540821526299</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>0.6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B5" s="23">
         <v>72.681385120326098</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C5" s="16">
         <v>57.969359560484698</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D5" s="16">
         <v>55.743027059015603</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E5" s="16">
         <v>46.865657391891403</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F5" s="24">
         <v>35.240294106392497</v>
       </c>
-      <c r="G8" s="5">
-        <v>47.144768253119103</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B6" s="23">
         <v>67.559642092509307</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C6" s="16">
         <v>55.335783588493499</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D6" s="16">
         <v>52.372290773883797</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E6" s="16">
         <v>44.881231073256501</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F6" s="24">
         <v>35.267458825749102</v>
       </c>
-      <c r="G9" s="5">
-        <v>44.2950111254112</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="23">
         <v>50.304134985544401</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C7" s="16">
         <v>44.9925799019721</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D7" s="16">
         <v>41.343869354748897</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E7" s="16">
         <v>38.362456160424102</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F7" s="24">
         <v>29.2903870612585</v>
       </c>
-      <c r="G10" s="5">
-        <v>39.5560368000491</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
         <v>62.7151155940265</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C8" s="19">
         <v>56.255178629814601</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D8" s="19">
         <v>53.976259474974597</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E8" s="19">
         <v>44.890930052552598</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F8" s="26">
         <v>39.172169385096097</v>
       </c>
-      <c r="G11" s="5">
-        <v>41.619759851757202</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5">
-        <v>86.287886824477894</v>
-      </c>
-      <c r="C12" s="5">
-        <v>65.570083047919198</v>
-      </c>
-      <c r="D12" s="5">
-        <v>61.902032249264998</v>
-      </c>
-      <c r="E12" s="5">
-        <v>51.935599975752403</v>
-      </c>
-      <c r="F12" s="5">
-        <v>36.960605279907902</v>
-      </c>
-      <c r="G12" s="5">
-        <v>52.431879489588702</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B13" s="5">
-        <v>66.5354014487922</v>
-      </c>
-      <c r="C13" s="5">
-        <v>54.153570454338798</v>
-      </c>
-      <c r="D13" s="5">
-        <v>48.525482678143902</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43.339988785499997</v>
-      </c>
-      <c r="F13" s="5">
-        <v>36.265571484860402</v>
-      </c>
-      <c r="G13" s="5">
-        <v>43.238262661776702</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>62.137839844815602</v>
-      </c>
-      <c r="C14" s="5">
-        <v>56.222153184008697</v>
-      </c>
-      <c r="D14" s="5">
-        <v>46.444018428151402</v>
-      </c>
-      <c r="E14" s="5">
-        <v>42.618017458248701</v>
-      </c>
-      <c r="F14" s="5">
-        <v>34.988444518534202</v>
-      </c>
-      <c r="G14" s="5">
-        <v>41.561353923559501</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B15" s="5">
-        <v>54.631133876882998</v>
-      </c>
-      <c r="C15" s="5">
-        <v>55.035424180886899</v>
-      </c>
-      <c r="D15" s="5">
-        <v>45.322378989482601</v>
-      </c>
-      <c r="E15" s="5">
-        <v>36.050980511017499</v>
-      </c>
-      <c r="F15" s="5">
-        <v>31.024080865638201</v>
-      </c>
-      <c r="G15" s="5">
-        <v>40.276270724093003</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="21">
+        <v>82.199936350134905</v>
+      </c>
+      <c r="C9" s="13">
+        <v>61.2970554360016</v>
+      </c>
+      <c r="D9" s="13">
+        <v>31.967197587367</v>
+      </c>
+      <c r="E9" s="13">
+        <v>31.322288061103901</v>
+      </c>
+      <c r="F9" s="22">
+        <v>40.320030006365002</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>0.6</v>
       </c>
-      <c r="B16" s="5">
-        <v>54.0952626314673</v>
-      </c>
-      <c r="C16" s="5">
-        <v>53.093762313218001</v>
-      </c>
-      <c r="D16" s="5">
-        <v>45.111008395720297</v>
-      </c>
-      <c r="E16" s="5">
-        <v>36.788371775831202</v>
-      </c>
-      <c r="F16" s="5">
-        <v>34.166414087836799</v>
-      </c>
-      <c r="G16" s="5">
-        <v>40.047813172491097</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B17" s="5">
-        <v>48.537151820082997</v>
-      </c>
-      <c r="C17" s="5">
-        <v>52.612182887279097</v>
-      </c>
-      <c r="D17" s="5">
-        <v>39.244764040857198</v>
-      </c>
-      <c r="E17" s="5">
-        <v>37.66980874731</v>
-      </c>
-      <c r="F17" s="5">
-        <v>29.549980298851299</v>
-      </c>
-      <c r="G17" s="5">
-        <v>41.957498560300699</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B18" s="5">
-        <v>33.989709938471798</v>
-      </c>
-      <c r="C18" s="5">
-        <v>40.023603491649702</v>
-      </c>
-      <c r="D18" s="5">
-        <v>36.0426454096323</v>
-      </c>
-      <c r="E18" s="5">
-        <v>29.3547494923166</v>
-      </c>
-      <c r="F18" s="5">
-        <v>27.918535750007599</v>
-      </c>
-      <c r="G18" s="5">
-        <v>34.856787803473502</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5">
-        <v>43.668316006425599</v>
-      </c>
-      <c r="C19" s="5">
-        <v>46.131944654926798</v>
-      </c>
-      <c r="D19" s="5">
-        <v>42.802715727578601</v>
-      </c>
-      <c r="E19" s="5">
-        <v>35.9997575243233</v>
-      </c>
-      <c r="F19" s="5">
-        <v>32.232556906010402</v>
-      </c>
-      <c r="G19" s="5">
-        <v>45.848930076076698</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="B10" s="23">
+        <v>44.275755463280099</v>
+      </c>
+      <c r="C10" s="16">
+        <v>41.1704755554209</v>
+      </c>
+      <c r="D10" s="16">
+        <v>33.337526141908903</v>
+      </c>
+      <c r="E10" s="16">
+        <v>30.352650562240498</v>
+      </c>
+      <c r="F10" s="24">
+        <v>29.356946928136299</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B11" s="23">
+        <v>38.277172430515598</v>
+      </c>
+      <c r="C11" s="16">
+        <v>35.553261297851101</v>
+      </c>
+      <c r="D11" s="16">
+        <v>17.7314506107356</v>
+      </c>
+      <c r="E11" s="16">
+        <v>37.831055072288102</v>
+      </c>
+      <c r="F11" s="24">
+        <v>15.7499696905404</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="23">
+        <v>29.7944260903828</v>
+      </c>
+      <c r="C12" s="16">
+        <v>27.5871396962992</v>
+      </c>
+      <c r="D12" s="16">
+        <v>25.4858606371048</v>
+      </c>
+      <c r="E12" s="16">
+        <v>26.3819598096566</v>
+      </c>
+      <c r="F12" s="24">
+        <v>23.007645561179601</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>5</v>
+      </c>
+      <c r="B13" s="25">
+        <v>42.291849786318302</v>
+      </c>
+      <c r="C13" s="19">
+        <v>37.723456490770801</v>
+      </c>
+      <c r="D13" s="19">
+        <v>32.264230291273897</v>
+      </c>
+      <c r="E13" s="19">
+        <v>34.356530173067</v>
+      </c>
+      <c r="F13" s="26">
+        <v>28.774020246719001</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21">
+        <v>53.8879080410996</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43.174082381111099</v>
+      </c>
+      <c r="D14" s="13">
+        <v>34.938699117994702</v>
+      </c>
+      <c r="E14" s="13">
+        <v>32.713416482284103</v>
+      </c>
+      <c r="F14" s="22">
+        <v>28.9431849180129</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="B15" s="23">
+        <v>35.372162276846602</v>
+      </c>
+      <c r="C15" s="16">
+        <v>29.973100354620701</v>
+      </c>
+      <c r="D15" s="16">
+        <v>29.7484314854666</v>
+      </c>
+      <c r="E15" s="16">
+        <v>26.858045646046101</v>
+      </c>
+      <c r="F15" s="24">
+        <v>24.196534113296799</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B16" s="23">
+        <v>34.338609705088999</v>
+      </c>
+      <c r="C16" s="16">
+        <v>30.0553905373867</v>
+      </c>
+      <c r="D16" s="16">
+        <v>29.6514412148031</v>
+      </c>
+      <c r="E16" s="16">
+        <v>26.273641378474199</v>
+      </c>
+      <c r="F16" s="24">
+        <v>26.398630012426899</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="23">
+        <v>25.9708498772467</v>
+      </c>
+      <c r="C17" s="16">
+        <v>31.426022186524399</v>
+      </c>
+      <c r="D17" s="16">
+        <v>24.0157381868881</v>
+      </c>
+      <c r="E17" s="16">
+        <v>22.593504682811499</v>
+      </c>
+      <c r="F17" s="24">
+        <v>18.950838056557501</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="25">
+        <v>28.906207377322499</v>
+      </c>
+      <c r="C18" s="19">
+        <v>41.205445094414003</v>
+      </c>
+      <c r="D18" s="19">
+        <v>28.408715485102899</v>
+      </c>
+      <c r="E18" s="19">
+        <v>28.095315673021499</v>
+      </c>
+      <c r="F18" s="26">
+        <v>24.676257084836202</v>
+      </c>
+      <c r="G18" s="20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21">
+        <v>46.670430091231502</v>
+      </c>
+      <c r="C19" s="13">
+        <v>35.401335131694601</v>
+      </c>
+      <c r="D19" s="13">
+        <v>37.511744915588203</v>
+      </c>
+      <c r="E19" s="13">
+        <v>30.509691449701499</v>
+      </c>
+      <c r="F19" s="22">
+        <v>28.291569423817201</v>
+      </c>
+      <c r="G19" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="B20" s="23">
+        <v>23.073379201648802</v>
+      </c>
+      <c r="C20" s="16">
+        <v>26.361084169369299</v>
+      </c>
+      <c r="D20" s="16">
+        <v>29.7573727760434</v>
+      </c>
+      <c r="E20" s="16">
+        <v>25.086722941230001</v>
+      </c>
+      <c r="F20" s="24">
+        <v>23.277930167005099</v>
+      </c>
+      <c r="G20" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B21" s="23">
+        <v>30.159314096929698</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21.457619798139</v>
+      </c>
+      <c r="D21" s="16">
+        <v>20.272027399751501</v>
+      </c>
+      <c r="E21" s="16">
+        <v>25.1388173248871</v>
+      </c>
+      <c r="F21" s="24">
+        <v>23.993195526323799</v>
+      </c>
+      <c r="G21" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B22" s="23">
+        <v>25.153820507380399</v>
+      </c>
+      <c r="C22" s="16">
+        <v>23.039697814688001</v>
+      </c>
+      <c r="D22" s="16">
+        <v>20.315673021550001</v>
+      </c>
+      <c r="E22" s="16">
+        <v>19.699216500469799</v>
+      </c>
+      <c r="F22" s="24">
+        <v>23.012873942957601</v>
+      </c>
+      <c r="G22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>5</v>
+      </c>
+      <c r="B23" s="25">
+        <v>27.451959506562002</v>
+      </c>
+      <c r="C23" s="19">
+        <v>41.774467311247797</v>
+      </c>
+      <c r="D23" s="19">
+        <v>30.197428242354398</v>
+      </c>
+      <c r="E23" s="19">
+        <v>26.323007910769</v>
+      </c>
+      <c r="F23" s="26">
+        <v>25.215917012699698</v>
+      </c>
+      <c r="G23" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
+        <v>0</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="28">
+        <v>5</v>
+      </c>
+      <c r="E25" s="28">
+        <v>10</v>
+      </c>
+      <c r="F25" s="29">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>0</v>
+      </c>
+      <c r="B26" s="21">
+        <v>100</v>
+      </c>
+      <c r="C26" s="13">
+        <v>80.961661374534799</v>
+      </c>
+      <c r="D26" s="13">
+        <v>74.460617408228103</v>
+      </c>
+      <c r="E26" s="13">
+        <v>59.050909411912201</v>
+      </c>
+      <c r="F26" s="22">
+        <v>49.6366860860944</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="B27" s="23">
+        <v>72.681385120326098</v>
+      </c>
+      <c r="C27" s="16">
+        <v>57.969359560484698</v>
+      </c>
+      <c r="D27" s="16">
+        <v>55.743027059015603</v>
+      </c>
+      <c r="E27" s="16">
+        <v>46.865657391891403</v>
+      </c>
+      <c r="F27" s="24">
+        <v>35.240294106392497</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B28" s="23">
+        <v>67.559642092509307</v>
+      </c>
+      <c r="C28" s="16">
+        <v>55.335783588493499</v>
+      </c>
+      <c r="D28" s="16">
+        <v>52.372290773883797</v>
+      </c>
+      <c r="E28" s="16">
+        <v>44.881231073256501</v>
+      </c>
+      <c r="F28" s="24">
+        <v>35.267458825749102</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B29" s="23">
+        <v>50.304134985544401</v>
+      </c>
+      <c r="C29" s="16">
+        <v>44.9925799019721</v>
+      </c>
+      <c r="D29" s="16">
+        <v>41.343869354748897</v>
+      </c>
+      <c r="E29" s="16">
+        <v>38.362456160424102</v>
+      </c>
+      <c r="F29" s="24">
+        <v>29.2903870612585</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>5</v>
+      </c>
+      <c r="B30" s="25">
+        <v>62.7151155940265</v>
+      </c>
+      <c r="C30" s="19">
+        <v>56.255178629814601</v>
+      </c>
+      <c r="D30" s="19">
+        <v>53.976259474974597</v>
+      </c>
+      <c r="E30" s="19">
+        <v>44.890930052552598</v>
+      </c>
+      <c r="F30" s="26">
+        <v>39.172169385096097</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>0</v>
+      </c>
+      <c r="B31" s="21">
         <v>82.199936350134905</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C31" s="13">
         <v>61.2970554360016</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D31" s="13">
         <v>31.967197587367</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E31" s="13">
         <v>31.322288061103901</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F31" s="22">
         <v>40.320030006365002</v>
       </c>
-      <c r="G20" s="5">
-        <v>41.342027096656899</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B21" s="5">
-        <v>57.7678219622344</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44.175620586184898</v>
-      </c>
-      <c r="D21" s="5">
-        <v>29.5725229594156</v>
-      </c>
-      <c r="E21" s="5">
-        <v>31.317059679325901</v>
-      </c>
-      <c r="F21" s="5">
-        <v>31.8690328251447</v>
-      </c>
-      <c r="G21" s="5">
-        <v>37.941116297396398</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B22" s="5">
-        <v>55.265397205467799</v>
-      </c>
-      <c r="C22" s="5">
-        <v>43.203785651501803</v>
-      </c>
-      <c r="D22" s="5">
-        <v>42.7419073742915</v>
-      </c>
-      <c r="E22" s="5">
-        <v>33.582009820264901</v>
-      </c>
-      <c r="F22" s="5">
-        <v>32.248204164519699</v>
-      </c>
-      <c r="G22" s="5">
-        <v>37.498181432425099</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B23" s="5">
-        <v>51.833722304731303</v>
-      </c>
-      <c r="C23" s="5">
-        <v>39.864137847422199</v>
-      </c>
-      <c r="D23" s="5">
-        <v>26.2056345285364</v>
-      </c>
-      <c r="E23" s="5">
-        <v>30.805473888400599</v>
-      </c>
-      <c r="F23" s="5">
-        <v>29.245294456399801</v>
-      </c>
-      <c r="G23" s="5">
-        <v>33.731018700936602</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="G31" s="14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>0.6</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B32" s="23">
         <v>44.275755463280099</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C32" s="16">
         <v>41.1704755554209</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D32" s="16">
         <v>33.337526141908903</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E32" s="16">
         <v>30.352650562240498</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F32" s="24">
         <v>29.356946928136299</v>
       </c>
-      <c r="G24" s="5">
-        <v>29.786431970418001</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="G32" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B33" s="23">
         <v>38.277172430515598</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C33" s="16">
         <v>35.553261297851101</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D33" s="16">
         <v>17.7314506107356</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E33" s="16">
         <v>37.831055072288102</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F33" s="24">
         <v>15.7499696905404</v>
       </c>
-      <c r="G25" s="5">
-        <v>36.872177431576397</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="G33" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B34" s="23">
         <v>29.7944260903828</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C34" s="16">
         <v>27.5871396962992</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D34" s="16">
         <v>25.4858606371048</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E34" s="16">
         <v>26.3819598096566</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F34" s="24">
         <v>23.007645561179601</v>
       </c>
-      <c r="G26" s="5">
-        <v>28.8922271390901</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="G34" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>5</v>
+      </c>
+      <c r="B35" s="25">
         <v>42.291849786318302</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C35" s="19">
         <v>37.723456490770801</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D35" s="19">
         <v>32.264230291273897</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E35" s="19">
         <v>34.356530173067</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F35" s="26">
         <v>28.774020246719001</v>
       </c>
-      <c r="G27" s="5">
-        <v>35.310861394841297</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="G35" s="20">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>0</v>
+      </c>
+      <c r="B36" s="21">
         <v>53.8879080410996</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C36" s="13">
         <v>43.174082381111099</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D36" s="13">
         <v>34.938699117994702</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E36" s="13">
         <v>32.713416482284103</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F36" s="22">
         <v>28.9431849180129</v>
       </c>
-      <c r="G28" s="5">
-        <v>35.604370624071798</v>
-      </c>
-      <c r="H28" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B29" s="5">
-        <v>45.101498802776298</v>
-      </c>
-      <c r="C29" s="5">
-        <v>38.1279741157215</v>
-      </c>
-      <c r="D29" s="5">
-        <v>31.814059042827299</v>
-      </c>
-      <c r="E29" s="5">
-        <v>28.017950777437601</v>
-      </c>
-      <c r="F29" s="5">
-        <v>27.609796017337001</v>
-      </c>
-      <c r="G29" s="5">
-        <v>34.481859788439998</v>
-      </c>
-      <c r="H29" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B30" s="5">
-        <v>39.642045282332603</v>
-      </c>
-      <c r="C30" s="5">
-        <v>36.458339647804102</v>
-      </c>
-      <c r="D30" s="5">
-        <v>32.7630482223502</v>
-      </c>
-      <c r="E30" s="5">
-        <v>31.0273012457188</v>
-      </c>
-      <c r="F30" s="5">
-        <v>26.6259509592944</v>
-      </c>
-      <c r="G30" s="5">
-        <v>33.211931318764599</v>
-      </c>
-      <c r="H30" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B31" s="5">
-        <v>39.973289788743102</v>
-      </c>
-      <c r="C31" s="5">
-        <v>35.126125238687003</v>
-      </c>
-      <c r="D31" s="5">
-        <v>26.816445912769399</v>
-      </c>
-      <c r="E31" s="5">
-        <v>25.555117752250499</v>
-      </c>
-      <c r="F31" s="5">
-        <v>24.319742066499</v>
-      </c>
-      <c r="G31" s="5">
-        <v>29.8160215803352</v>
-      </c>
-      <c r="H31" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="G36" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>0.6</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B37" s="23">
         <v>35.372162276846602</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C37" s="16">
         <v>29.973100354620701</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D37" s="16">
         <v>29.7484314854666</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E37" s="16">
         <v>26.858045646046101</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F37" s="24">
         <v>24.196534113296799</v>
       </c>
-      <c r="G32" s="5">
-        <v>28.621715212317799</v>
-      </c>
-      <c r="H32" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="G37" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B38" s="23">
         <v>34.338609705088999</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C38" s="16">
         <v>30.0553905373867</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D38" s="16">
         <v>29.6514412148031</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E38" s="16">
         <v>26.273641378474199</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F38" s="24">
         <v>26.398630012426899</v>
       </c>
-      <c r="G33" s="5">
-        <v>28.064286363774102</v>
-      </c>
-      <c r="H33" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="G38" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B39" s="23">
         <v>25.9708498772467</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C39" s="16">
         <v>31.426022186524399</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D39" s="16">
         <v>24.0157381868881</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E39" s="16">
         <v>22.593504682811499</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F39" s="24">
         <v>18.950838056557501</v>
       </c>
-      <c r="G34" s="5">
-        <v>23.654904070560399</v>
-      </c>
-      <c r="H34" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="G39" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
         <v>28.906207377322499</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C40" s="19">
         <v>41.205445094414003</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D40" s="19">
         <v>28.408715485102899</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E40" s="19">
         <v>28.095315673021499</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F40" s="26">
         <v>24.676257084836202</v>
       </c>
-      <c r="G35" s="5">
-        <v>30.070962022247102</v>
-      </c>
-      <c r="H35" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>0</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="G40" s="20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>0</v>
+      </c>
+      <c r="B41" s="21">
         <v>46.670430091231502</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C41" s="13">
         <v>35.401335131694601</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D41" s="13">
         <v>37.511744915588203</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E41" s="13">
         <v>30.509691449701499</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F41" s="22">
         <v>28.291569423817201</v>
       </c>
-      <c r="G36" s="5">
-        <v>32.745961264510697</v>
-      </c>
-      <c r="H36" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B37" s="5">
-        <v>33.723744430636799</v>
-      </c>
-      <c r="C37" s="5">
-        <v>23.370222471433301</v>
-      </c>
-      <c r="D37" s="5">
-        <v>30.736595641499701</v>
-      </c>
-      <c r="E37" s="5">
-        <v>26.692025581183898</v>
-      </c>
-      <c r="F37" s="5">
-        <v>22.787257903191598</v>
-      </c>
-      <c r="G37" s="5">
-        <v>29.130648925529702</v>
-      </c>
-      <c r="H37" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B38" s="5">
-        <v>29.346831146000699</v>
-      </c>
-      <c r="C38" s="5">
-        <v>30.128890976873901</v>
-      </c>
-      <c r="D38" s="5">
-        <v>28.958188100506199</v>
-      </c>
-      <c r="E38" s="5">
-        <v>26.0421907677386</v>
-      </c>
-      <c r="F38" s="5">
-        <v>24.504932864547001</v>
-      </c>
-      <c r="G38" s="5">
-        <v>27.948580001818598</v>
-      </c>
-      <c r="H38" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B39" s="5">
-        <v>30.748605764859199</v>
-      </c>
-      <c r="C39" s="5">
-        <v>30.8014957718304</v>
-      </c>
-      <c r="D39" s="5">
-        <v>30.005455702724799</v>
-      </c>
-      <c r="E39" s="5">
-        <v>23.3551435152911</v>
-      </c>
-      <c r="F39" s="5">
-        <v>24.3069363198254</v>
-      </c>
-      <c r="G39" s="5">
-        <v>23.886241020822599</v>
-      </c>
-      <c r="H39" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="G41" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
         <v>0.6</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B42" s="23">
         <v>23.073379201648802</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C42" s="16">
         <v>26.361084169369299</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D42" s="16">
         <v>29.7573727760434</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E42" s="16">
         <v>25.086722941230001</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F42" s="24">
         <v>23.277930167005099</v>
       </c>
-      <c r="G40" s="5">
-        <v>25.161928287818601</v>
-      </c>
-      <c r="H40" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="G42" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B43" s="23">
         <v>30.159314096929698</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C43" s="16">
         <v>21.457619798139</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D43" s="16">
         <v>20.272027399751501</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E43" s="16">
         <v>25.1388173248871</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F43" s="24">
         <v>23.993195526323799</v>
       </c>
-      <c r="G41" s="5">
-        <v>29.00145485406</v>
-      </c>
-      <c r="H41" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="G43" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B44" s="23">
         <v>25.153820507380399</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C44" s="16">
         <v>23.039697814688001</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D44" s="16">
         <v>20.315673021550001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E44" s="16">
         <v>19.699216500469799</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F44" s="24">
         <v>23.012873942957601</v>
       </c>
-      <c r="G42" s="5">
-        <v>23.226858727608899</v>
-      </c>
-      <c r="H42" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>5</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="G44" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>5</v>
+      </c>
+      <c r="B45" s="25">
         <v>27.451959506562002</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C45" s="19">
         <v>41.774467311247797</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D45" s="19">
         <v>30.197428242354398</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E45" s="19">
         <v>26.323007910769</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F45" s="26">
         <v>25.215917012699698</v>
       </c>
-      <c r="G43" s="5">
-        <v>32.699171036280397</v>
-      </c>
-      <c r="H43" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="11">
-        <v>0</v>
-      </c>
-      <c r="C45" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="D45" s="11">
-        <v>5</v>
-      </c>
-      <c r="E45" s="11">
-        <v>10</v>
-      </c>
-      <c r="F45" s="11">
-        <v>20</v>
-      </c>
-      <c r="G45" s="11">
-        <v>40</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>0</v>
-      </c>
-      <c r="B46" s="5">
-        <v>100</v>
-      </c>
-      <c r="C46" s="5">
-        <v>66.880753962200004</v>
-      </c>
-      <c r="D46" s="5">
-        <v>71.500031483399994</v>
-      </c>
-      <c r="E46" s="5">
-        <v>54.836220290299998</v>
-      </c>
-      <c r="F46" s="5">
-        <v>54.781014469200002</v>
-      </c>
-      <c r="G46" s="5">
-        <v>54.561655530300001</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B47" s="5">
-        <v>84.289624087899995</v>
-      </c>
-      <c r="C47" s="5">
-        <v>115.3696227407</v>
-      </c>
-      <c r="D47" s="5">
-        <v>49.517864281500003</v>
-      </c>
-      <c r="E47" s="5">
-        <v>51.600602724600002</v>
-      </c>
-      <c r="F47" s="5">
-        <v>47.491942439500001</v>
-      </c>
-      <c r="G47" s="5">
-        <v>53.023360701900003</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B48" s="5">
-        <v>93.8826971485</v>
-      </c>
-      <c r="C48" s="5">
-        <v>44.706611080099997</v>
-      </c>
-      <c r="D48" s="5">
-        <v>54.7618315446</v>
-      </c>
-      <c r="E48" s="5">
-        <v>55.835636016499997</v>
-      </c>
-      <c r="F48" s="5">
-        <v>41.124090092400003</v>
-      </c>
-      <c r="G48" s="5">
-        <v>73.240698844199997</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B49" s="5">
-        <v>71.327531596900002</v>
-      </c>
-      <c r="C49" s="5">
-        <v>85.550571900099996</v>
-      </c>
-      <c r="D49" s="5">
-        <v>41.864170250699999</v>
-      </c>
-      <c r="E49" s="5">
-        <v>50.835482260200003</v>
-      </c>
-      <c r="F49" s="5">
-        <v>38.093773749900002</v>
-      </c>
-      <c r="G49" s="5">
-        <v>67.564896126700006</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="B50" s="5">
-        <v>62.100105579299999</v>
-      </c>
-      <c r="C50" s="5">
-        <v>66.019718874999995</v>
-      </c>
-      <c r="D50" s="5">
-        <v>46.8017964589</v>
-      </c>
-      <c r="E50" s="5">
-        <v>49.672645588899996</v>
-      </c>
-      <c r="F50" s="5">
-        <v>36.428373741900003</v>
-      </c>
-      <c r="G50" s="5">
-        <v>75.340862997299993</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B51" s="5">
-        <v>47.339943388400002</v>
-      </c>
-      <c r="C51" s="5">
-        <v>50.310221570099998</v>
-      </c>
-      <c r="D51" s="5">
-        <v>43.987471060899999</v>
-      </c>
-      <c r="E51" s="5">
-        <v>41.398654852299998</v>
-      </c>
-      <c r="F51" s="5">
-        <v>33.9590481169</v>
-      </c>
-      <c r="G51" s="5">
-        <v>42.5499231951</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B52" s="5">
-        <v>43.283999537299998</v>
-      </c>
-      <c r="C52" s="5">
-        <v>62.561520810499999</v>
-      </c>
-      <c r="D52" s="5">
-        <v>38.544938563400002</v>
-      </c>
-      <c r="E52" s="5">
-        <v>43.071962325299999</v>
-      </c>
-      <c r="F52" s="5">
-        <v>33.188070271000001</v>
-      </c>
-      <c r="G52" s="5">
-        <v>35.876461965799997</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>5</v>
-      </c>
-      <c r="B53" s="5">
-        <v>55.917492923600001</v>
-      </c>
-      <c r="C53" s="5">
-        <v>88.056945463399998</v>
-      </c>
-      <c r="D53" s="5">
-        <v>47.7123264202</v>
-      </c>
-      <c r="E53" s="5">
-        <v>52.0071050038</v>
-      </c>
-      <c r="F53" s="5">
-        <v>42.749806340299997</v>
-      </c>
-      <c r="G53" s="5">
-        <v>34.189096777099998</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>0</v>
-      </c>
-      <c r="B54" s="5">
-        <v>117.83900538890001</v>
-      </c>
-      <c r="C54" s="5">
-        <v>84.282445982900001</v>
-      </c>
-      <c r="D54" s="5">
-        <v>79.437528815099995</v>
-      </c>
-      <c r="E54" s="5">
-        <v>74.938455248500006</v>
-      </c>
-      <c r="F54" s="5">
-        <v>70.811694807600006</v>
-      </c>
-      <c r="G54" s="5">
-        <v>63.9872797158</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B55" s="5">
-        <v>75.663446829199998</v>
-      </c>
-      <c r="C55" s="5">
-        <v>59.932720184799997</v>
-      </c>
-      <c r="D55" s="5">
-        <v>51.680939084099997</v>
-      </c>
-      <c r="E55" s="5">
-        <v>54.175784983</v>
-      </c>
-      <c r="F55" s="5">
-        <v>51.382442379099999</v>
-      </c>
-      <c r="G55" s="5">
-        <v>46.288985073900001</v>
-      </c>
-      <c r="H55" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B56" s="5">
-        <v>66.1035989855</v>
-      </c>
-      <c r="C56" s="5">
-        <v>55.703064127099999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>48.651483349700001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>49.6789482776</v>
-      </c>
-      <c r="F56" s="5">
-        <v>48.950477134899998</v>
-      </c>
-      <c r="G56" s="5">
-        <v>45.961409172899998</v>
-      </c>
-      <c r="H56" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B57" s="5">
-        <v>45.529570684200003</v>
-      </c>
-      <c r="C57" s="5">
-        <v>40.177134555899997</v>
-      </c>
-      <c r="D57" s="5">
-        <v>40.243743312699998</v>
-      </c>
-      <c r="E57" s="5">
-        <v>37.909827152799998</v>
-      </c>
-      <c r="F57" s="5">
-        <v>38.851794273400003</v>
-      </c>
-      <c r="G57" s="5">
-        <v>40.633702788199997</v>
-      </c>
-      <c r="H57" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="B58" s="5">
-        <v>36.383542169199998</v>
-      </c>
-      <c r="C58" s="5">
-        <v>34.6262391279</v>
-      </c>
-      <c r="D58" s="5">
-        <v>31.006997647599999</v>
-      </c>
-      <c r="E58" s="5">
-        <v>31.619649086199999</v>
-      </c>
-      <c r="F58" s="5">
-        <v>32.480840662200002</v>
-      </c>
-      <c r="G58" s="5">
-        <v>35.8771416393</v>
-      </c>
-      <c r="H58" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B59" s="5">
-        <v>30.004635273600002</v>
-      </c>
-      <c r="C59" s="5">
-        <v>29.343145698000001</v>
-      </c>
-      <c r="D59" s="5">
-        <v>29.859736373499999</v>
-      </c>
-      <c r="E59" s="5">
-        <v>29.594295506800002</v>
-      </c>
-      <c r="F59" s="5">
-        <v>31.820966597400002</v>
-      </c>
-      <c r="G59" s="5">
-        <v>33.783563792199999</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B60" s="5">
-        <v>28.973193703500002</v>
-      </c>
-      <c r="C60" s="5">
-        <v>26.6948262642</v>
-      </c>
-      <c r="D60" s="5">
-        <v>26.563348531599999</v>
-      </c>
-      <c r="E60" s="5">
-        <v>26.120698546900002</v>
-      </c>
-      <c r="F60" s="5">
-        <v>27.954551950500001</v>
-      </c>
-      <c r="G60" s="5">
-        <v>30.008487645700001</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>5</v>
-      </c>
-      <c r="B61" s="5">
-        <v>35.486933623600002</v>
-      </c>
-      <c r="C61" s="5">
-        <v>36.205835970999999</v>
-      </c>
-      <c r="D61" s="5">
-        <v>36.270704946800002</v>
-      </c>
-      <c r="E61" s="5">
-        <v>35.847192552700001</v>
-      </c>
-      <c r="F61" s="5">
-        <v>36.078334880500002</v>
-      </c>
-      <c r="G61" s="5">
-        <v>36.452014976999997</v>
-      </c>
-      <c r="H61" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>0</v>
-      </c>
-      <c r="B62" s="5">
-        <v>91.116447984999994</v>
-      </c>
-      <c r="C62" s="5">
-        <v>69.349812558599993</v>
-      </c>
-      <c r="D62" s="5">
-        <v>64.858100984100005</v>
-      </c>
-      <c r="E62" s="5">
-        <v>63.732427366400003</v>
-      </c>
-      <c r="F62" s="5">
-        <v>25.807608950300001</v>
-      </c>
-      <c r="G62" s="5">
-        <v>69.799379100300001</v>
-      </c>
-      <c r="H62" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B63" s="5">
-        <v>71.653877694499997</v>
-      </c>
-      <c r="C63" s="5">
-        <v>51.715967666399997</v>
-      </c>
-      <c r="D63" s="5">
-        <v>54.041998594200003</v>
-      </c>
-      <c r="E63" s="5">
-        <v>50.808048266199997</v>
-      </c>
-      <c r="F63" s="5">
-        <v>41.869728209900003</v>
-      </c>
-      <c r="G63" s="5">
-        <v>43.845477975599998</v>
-      </c>
-      <c r="H63" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B64" s="5">
-        <v>63.031279287700002</v>
-      </c>
-      <c r="C64" s="5">
-        <v>44.191073102200001</v>
-      </c>
-      <c r="D64" s="5">
-        <v>47.022756560399998</v>
-      </c>
-      <c r="E64" s="5">
-        <v>40.287019681300002</v>
-      </c>
-      <c r="F64" s="5">
-        <v>33.963361059</v>
-      </c>
-      <c r="G64" s="5">
-        <v>42.887623008399999</v>
-      </c>
-      <c r="H64" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B65" s="5">
-        <v>53.404111996300003</v>
-      </c>
-      <c r="C65" s="5">
-        <v>40.472264526700002</v>
-      </c>
-      <c r="D65" s="5">
-        <v>41.524133083400002</v>
-      </c>
-      <c r="E65" s="5">
-        <v>39.835988753499997</v>
-      </c>
-      <c r="F65" s="5">
-        <v>35.526886129300003</v>
-      </c>
-      <c r="G65" s="5">
-        <v>39.640346766599997</v>
-      </c>
-      <c r="H65" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="B66" s="5">
-        <v>42.784090909100001</v>
-      </c>
-      <c r="C66" s="5">
-        <v>33.726130506099999</v>
-      </c>
-      <c r="D66" s="5">
-        <v>37.843105670100002</v>
-      </c>
-      <c r="E66" s="5">
-        <v>38.285936035600002</v>
-      </c>
-      <c r="F66" s="5">
-        <v>33.851189081500003</v>
-      </c>
-      <c r="G66" s="5">
-        <v>34.9642689784</v>
-      </c>
-      <c r="H66" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B67" s="5">
-        <v>45.250263589500001</v>
-      </c>
-      <c r="C67" s="5">
-        <v>40.071169165900002</v>
-      </c>
-      <c r="D67" s="5">
-        <v>36.007351218399997</v>
-      </c>
-      <c r="E67" s="5">
-        <v>33.389321696300001</v>
-      </c>
-      <c r="F67" s="5">
-        <v>38.754100281200003</v>
-      </c>
-      <c r="G67" s="5">
-        <v>40.027969775099997</v>
-      </c>
-      <c r="H67" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B68" s="5">
-        <v>32.852770618599997</v>
-      </c>
-      <c r="C68" s="5">
-        <v>32.717168463</v>
-      </c>
-      <c r="D68" s="5">
-        <v>28.2507907685</v>
-      </c>
-      <c r="E68" s="5">
-        <v>30.668785145299999</v>
-      </c>
-      <c r="F68" s="5">
-        <v>30.990071462</v>
-      </c>
-      <c r="G68" s="5">
-        <v>34.4685742737</v>
-      </c>
-      <c r="H68" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>5</v>
-      </c>
-      <c r="B69" s="5">
-        <v>43.689374414200003</v>
-      </c>
-      <c r="C69" s="5">
-        <v>41.615510777899999</v>
-      </c>
-      <c r="D69" s="5">
-        <v>39.758376288699999</v>
-      </c>
-      <c r="E69" s="5">
-        <v>42.465294048700002</v>
-      </c>
-      <c r="F69" s="5">
-        <v>36.432608950300001</v>
-      </c>
-      <c r="G69" s="5">
-        <v>42.932726101199997</v>
-      </c>
-      <c r="H69" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>0</v>
-      </c>
-      <c r="B70" s="5">
-        <v>87.681583880000005</v>
-      </c>
-      <c r="C70" s="5">
-        <v>70.479440018700004</v>
-      </c>
-      <c r="D70" s="5">
-        <v>63.336164479899999</v>
-      </c>
-      <c r="E70" s="5">
-        <v>54.0895911434</v>
-      </c>
-      <c r="F70" s="5">
-        <v>42.329252577299997</v>
-      </c>
-      <c r="G70" s="5">
-        <v>162.63589503279999</v>
-      </c>
-      <c r="H70" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B71" s="5">
-        <v>73.652179006599994</v>
-      </c>
-      <c r="C71" s="5">
-        <v>44.997949859400002</v>
-      </c>
-      <c r="D71" s="5">
-        <v>54.013003748800003</v>
-      </c>
-      <c r="E71" s="5">
-        <v>44.1147785848</v>
-      </c>
-      <c r="F71" s="5">
-        <v>44.697164948500003</v>
-      </c>
-      <c r="G71" s="5">
-        <v>91.969599344000002</v>
-      </c>
-      <c r="H71" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B72" s="5">
-        <v>67.868732427400005</v>
-      </c>
-      <c r="C72" s="5">
-        <v>41.867970946600003</v>
-      </c>
-      <c r="D72" s="5">
-        <v>47.741330834099998</v>
-      </c>
-      <c r="E72" s="5">
-        <v>45.971180881000002</v>
-      </c>
-      <c r="F72" s="5">
-        <v>44.977302014999999</v>
-      </c>
-      <c r="G72" s="5">
-        <v>44.395794283000001</v>
-      </c>
-      <c r="H72" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B73" s="5">
-        <v>57.6206654171</v>
-      </c>
-      <c r="C73" s="5">
-        <v>40.498477038399997</v>
-      </c>
-      <c r="D73" s="5">
-        <v>42.248711340200003</v>
-      </c>
-      <c r="E73" s="5">
-        <v>37.586545220200001</v>
-      </c>
-      <c r="F73" s="5">
-        <v>43.184307638200004</v>
-      </c>
-      <c r="G73" s="5">
-        <v>45.546948219299999</v>
-      </c>
-      <c r="H73" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="B74" s="5">
-        <v>44.685596298</v>
-      </c>
-      <c r="C74" s="5">
-        <v>37.3203198219</v>
-      </c>
-      <c r="D74" s="5">
-        <v>37.830511949399998</v>
-      </c>
-      <c r="E74" s="5">
-        <v>38.514087394599997</v>
-      </c>
-      <c r="F74" s="5">
-        <v>37.575123008399999</v>
-      </c>
-      <c r="G74" s="5">
-        <v>44.969394329899998</v>
-      </c>
-      <c r="H74" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B75" s="5">
-        <v>41.582562090000003</v>
-      </c>
-      <c r="C75" s="5">
-        <v>39.950650187400001</v>
-      </c>
-      <c r="D75" s="5">
-        <v>41.470243673900001</v>
-      </c>
-      <c r="E75" s="5">
-        <v>39.560684161200001</v>
-      </c>
-      <c r="F75" s="5">
-        <v>37.946637769399999</v>
-      </c>
-      <c r="G75" s="5">
-        <v>42.8685859888</v>
-      </c>
-      <c r="H75" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B76" s="5">
-        <v>44.553508669199999</v>
-      </c>
-      <c r="C76" s="5">
-        <v>37.708382146200002</v>
-      </c>
-      <c r="D76" s="5">
-        <v>32.320173383300002</v>
-      </c>
-      <c r="E76" s="5">
-        <v>33.333967900700003</v>
-      </c>
-      <c r="F76" s="5">
-        <v>31.7688320056</v>
-      </c>
-      <c r="G76" s="5">
-        <v>43.662283270899998</v>
-      </c>
-      <c r="H76" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
-        <v>5</v>
-      </c>
-      <c r="B77" s="5">
-        <v>57.972996719800001</v>
-      </c>
-      <c r="C77" s="5">
-        <v>48.841817010299998</v>
-      </c>
-      <c r="D77" s="5">
-        <v>51.1927425023</v>
-      </c>
-      <c r="E77" s="5">
-        <v>50.218193533300003</v>
-      </c>
-      <c r="F77" s="5">
-        <v>59.483218135000001</v>
-      </c>
-      <c r="G77" s="5">
-        <v>79.806701030900001</v>
-      </c>
-      <c r="H77" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
-        <v>0</v>
-      </c>
-      <c r="B78" s="5">
-        <v>86.743351687000001</v>
-      </c>
-      <c r="C78" s="5">
-        <v>68.383903467699994</v>
-      </c>
-      <c r="D78" s="5">
-        <v>68.264848875400006</v>
-      </c>
-      <c r="E78" s="5">
-        <v>54.992092314899999</v>
-      </c>
-      <c r="F78" s="5">
-        <v>51.954223289600002</v>
-      </c>
-      <c r="G78" s="5">
-        <v>54.8991037957</v>
-      </c>
-      <c r="H78" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B79" s="5">
-        <v>83.829236958400003</v>
-      </c>
-      <c r="C79" s="5">
-        <v>53.974741412599997</v>
-      </c>
-      <c r="D79" s="5">
-        <v>53.837660989299998</v>
-      </c>
-      <c r="E79" s="5">
-        <v>52.630610463700002</v>
-      </c>
-      <c r="F79" s="5">
-        <v>53.393162523000001</v>
-      </c>
-      <c r="G79" s="5">
-        <v>64.913489085099997</v>
-      </c>
-      <c r="H79" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="B80" s="5">
-        <v>68.620231517400001</v>
-      </c>
-      <c r="C80" s="5">
-        <v>55.368673746900001</v>
-      </c>
-      <c r="D80" s="5">
-        <v>55.936240721300003</v>
-      </c>
-      <c r="E80" s="5">
-        <v>51.146191544600001</v>
-      </c>
-      <c r="F80" s="5">
-        <v>47.986082623000001</v>
-      </c>
-      <c r="G80" s="5">
-        <v>64.971056110099994</v>
-      </c>
-      <c r="H80" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="B81" s="5">
-        <v>52.246886569300003</v>
-      </c>
-      <c r="C81" s="5">
-        <v>47.018247565199999</v>
-      </c>
-      <c r="D81" s="5">
-        <v>43.900849662299997</v>
-      </c>
-      <c r="E81" s="5">
-        <v>47.0798662284</v>
-      </c>
-      <c r="F81" s="5">
-        <v>40.594206495100003</v>
-      </c>
-      <c r="G81" s="5">
-        <v>54.197750327900003</v>
-      </c>
-      <c r="H81" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="B82" s="5">
-        <v>53.631196263</v>
-      </c>
-      <c r="C82" s="5">
-        <v>45.998416484800003</v>
-      </c>
-      <c r="D82" s="5">
-        <v>45.367711482799997</v>
-      </c>
-      <c r="E82" s="5">
-        <v>46.4214750326</v>
-      </c>
-      <c r="F82" s="5">
-        <v>47.239905934500001</v>
-      </c>
-      <c r="G82" s="5">
-        <v>51.635089211999997</v>
-      </c>
-      <c r="H82" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="B83" s="5">
-        <v>47.426956561399997</v>
-      </c>
-      <c r="C83" s="5">
-        <v>44.3399459444</v>
-      </c>
-      <c r="D83" s="5">
-        <v>45.227592330900002</v>
-      </c>
-      <c r="E83" s="5">
-        <v>43.654037373000001</v>
-      </c>
-      <c r="F83" s="5">
-        <v>39.445398267599998</v>
-      </c>
-      <c r="G83" s="5">
-        <v>47.7872147183</v>
-      </c>
-      <c r="H83" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="B84" s="5">
-        <v>49.096737924899998</v>
-      </c>
-      <c r="C84" s="5">
-        <v>38.189390447900003</v>
-      </c>
-      <c r="D84" s="5">
-        <v>39.382935513100001</v>
-      </c>
-      <c r="E84" s="5">
-        <v>38.032895925200002</v>
-      </c>
-      <c r="F84" s="5">
-        <v>35.429549609799999</v>
-      </c>
-      <c r="G84" s="5">
-        <v>39.251763728699999</v>
-      </c>
-      <c r="H84" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>5</v>
-      </c>
-      <c r="B85" s="5">
-        <v>60.916716890099998</v>
-      </c>
-      <c r="C85" s="5">
-        <v>52.986985800699998</v>
-      </c>
-      <c r="D85" s="5">
-        <v>55.435863412499998</v>
-      </c>
-      <c r="E85" s="5">
-        <v>55.968822644600003</v>
-      </c>
-      <c r="F85" s="5">
-        <v>48.468396378500003</v>
-      </c>
-      <c r="G85" s="5">
-        <v>55.515376810799999</v>
-      </c>
-      <c r="H85" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6"/>
+      <c r="G45" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
